--- a/pit tag samples.xlsx
+++ b/pit tag samples.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maine Genetics Program\Spawning Form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\maine_genetics\SpawnOpt_flexible\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E06F35-180B-493E-A945-CEADE049BCDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10755"/>
+    <workbookView xWindow="14685" yWindow="465" windowWidth="18105" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="71">
   <si>
     <t>3D6.00088D22DF</t>
   </si>
@@ -230,12 +231,21 @@
   </si>
   <si>
     <t>1,2,7,8,3,4,5,6</t>
+  </si>
+  <si>
+    <t>3DD.003BD41044</t>
+  </si>
+  <si>
+    <t>3DD.003BB4AE4B</t>
+  </si>
+  <si>
+    <t>runtime error 13: type mismatch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
@@ -361,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -370,31 +380,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -405,18 +415,15 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="1"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -727,11 +734,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,9 +1362,24 @@
         <f>AVERAGE(D19:D20)</f>
         <v>0.38850000000000001</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="21">
         <f>SUM(E16:E20)</f>
         <v>4.7492658187478876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -1522,7 +1544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1837,7 +1859,7 @@
       <c r="C12" s="14">
         <v>0.36099999999999999</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" t="s">
         <v>46</v>
       </c>
       <c r="E12">
@@ -2130,7 +2152,7 @@
       <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="13">
         <v>0.44400000000000001</v>
       </c>
       <c r="D23" t="s">
@@ -2249,7 +2271,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="24">
+      <c r="C28" s="13">
         <v>0.36099999999999999</v>
       </c>
       <c r="G28" t="s">
@@ -2266,7 +2288,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C29" s="24">
+      <c r="C29" s="13">
         <v>0.36099999999999999</v>
       </c>
       <c r="G29" t="s">
@@ -2283,7 +2305,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C30" s="24">
+      <c r="C30" s="13">
         <v>0.44400000000000001</v>
       </c>
       <c r="G30" t="s">
@@ -2300,7 +2322,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="24">
+      <c r="C31" s="13">
         <v>0.38900000000000001</v>
       </c>
       <c r="G31" t="s">
@@ -3306,7 +3328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -3603,7 +3625,7 @@
       <c r="D15" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="19" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3637,7 +3659,7 @@
       <c r="D17" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="19" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3671,7 +3693,7 @@
       <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3835,10 +3857,10 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
+      <c r="A33" s="20">
         <v>0.36099999999999999</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="20">
         <v>0.36099999999999999</v>
       </c>
       <c r="I33">
@@ -3854,7 +3876,7 @@
         <f>AVERAGE(B27:B33)</f>
         <v>0.38485714285714284</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="20">
         <f>AVERAGE(I26:I33)</f>
         <v>0.40262500000000001</v>
       </c>
